--- a/data/Test_Data.xlsx
+++ b/data/Test_Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="27">
   <si>
     <t>Username</t>
   </si>
@@ -121,47 +121,71 @@
   </si>
   <si>
     <t>org.openqa.selenium.WebDriverException: Failed to connect to binary FirefoxBinary(C:\Program Files (x86)\Mozilla Firefox\firefox.exe) on port 7055; process output follows: 
-08198ce6fd}
-1456380109243	addons.xpi	DEBUG	Skipping unavailable install location app-system-share
-1456380109243	addons.xpi	DEBUG	Skipping unavailable install location app-system-local
-1456380109243	addons.xpi	INFO	Mapping quickprint@hp.com to C:\Program Files (x86)\Hewlett-Packard\SmartPrint\QPExtension
-1456380109244	addons.xpi	DEBUG	checkForChanges
-1456380109245	addons.xpi	DEBUG	Loaded add-on state from prefs: {"app-profile":{"fxdriver@googlecode.com":{"d":"C:\\Users\\priyars\\AppData\\Local\\Temp\\anonymous2758731838074037342webdriver-profile\\extensions\\fxdriver@googlecode.com","e":false,"v":"2.42.2","st":1456380103170,"mt":1456380103081}},"app-global":{"{972ce4c6-7e08-4474-a285-3208198ce6fd}":{"d":"C:\\Program Files (x86)\\Mozilla Firefox\\browser\\extensions\\{972ce4c6-7e08-4474-a285-3208198ce6fd}","e":true,"v":"43.0.1","st":1455609872676,"mt":1455609872273}},"winreg-app-global":{"quickprint@hp.com":{"d":"C:\\Program Files (x86)\\Hewlett-Packard\\SmartPrint\\QPExtension","e":false,"v":"1.0","st":1296032248000,"mt":1293091680000}}}
-1456380109247	addons.xpi	DEBUG	Existing add-on fxdriver@googlecode.com in app-profile
-1456380109249	addons.xpi	DEBUG	getModTime: Recursive scan of {972ce4c6-7e08-4474-a285-3208198ce6fd}
-1456380109250	addons.xpi	DEBUG	Existing add-on {972ce4c6-7e08-4474-a285-3208198ce6fd} in app-global
-1456380109251	addons.xpi	DEBUG	Existing add-on quickprint@hp.com in winreg-app-global
-1456380109251	addons.xpi	DEBUG	getInstallState changed: false, state: {"app-profile":{"fxdriver@googlecode.com":{"d":"C:\\Users\\priyars\\AppData\\Local\\Temp\\anonymous2758731838074037342webdriver-profile\\extensions\\fxdriver@googlecode.com","e":false,"v":"2.42.2","st":1456380103170,"mt":1456380103081}},"app-global":{"{972ce4c6-7e08-4474-a285-3208198ce6fd}":{"d":"C:\\Program Files (x86)\\Mozilla Firefox\\browser\\extensions\\{972ce4c6-7e08-4474-a285-3208198ce6fd}","e":true,"v":"43.0.1","st":1455609872676,"mt":1455609872273}},"winreg-app-global":{"quickprint@hp.com":{"d":"C:\\Program Files (x86)\\Hewlett-Packard\\SmartPrint\\QPExtension","e":false,"v":"1.0","st":1296032248000,"mt":1293091680000}}}
-1456380109255	addons.xpi	DEBUG	No changes found
-1456380109270	addons.manager	DEBUG	Registering shutdown blocker for XPIProvider
-1456380109271	addons.manager	DEBUG	Provider finished startup: XPIProvider
-1456380109271	addons.manager	DEBUG	Starting provider: LightweightThemeManager
-1456380109271	addons.manager	DEBUG	Registering shutdown blocker for LightweightThemeManager
-1456380109272	addons.manager	DEBUG	Provider finished startup: LightweightThemeManager
-1456380109273	addons.manager	DEBUG	Starting provider: GMPProvider
-1456380109281	addons.manager	DEBUG	Registering shutdown blocker for GMPProvider
-1456380109281	addons.manager	DEBUG	Provider finished startup: GMPProvider
-1456380109281	addons.manager	DEBUG	Starting provider: PluginProvider
-1456380109282	addons.manager	DEBUG	Registering shutdown blocker for PluginProvider
-1456380109282	addons.manager	DEBUG	Provider finished startup: PluginProvider
-1456380109283	addons.manager	DEBUG	Completed startup sequence
-1456380109417	addons.xpi-utils	DEBUG	Starting async load of XPI database C:\Users\priyars\AppData\Local\Temp\anonymous2758731838074037342webdriver-profile\extensions.json
-*** Blocklist::_loadBlocklistFromFile: blocklist is disabled
-1456380109589	addons.manager	DEBUG	Starting provider: &lt;unnamed-provider&gt;
-1456380109589	addons.manager	DEBUG	Registering shutdown blocker for &lt;unnamed-provider&gt;
-1456380109590	addons.manager	DEBUG	Provider finished startup: &lt;unnamed-provider&gt;
-1456380109763	addons.xpi-utils	DEBUG	Async JSON file read took 0 MS
-1456380109763	addons.xpi-utils	DEBUG	Finished async read of XPI database, parsing...
-1456380109765	addons.xpi-utils	DEBUG	Successfully read XPI database
-1456380109891	addons.manager	DEBUG	Starting provider: PreviousExperimentProvider
-1456380109891	addons.manager	DEBUG	Registering shutdown blocker for PreviousExperimentProvider
-1456380109892	addons.manager	DEBUG	Provider finished startup: PreviousExperimentProvider
+08198ce6fd}
+1456380109243	addons.xpi	DEBUG	Skipping unavailable install location app-system-share
+1456380109243	addons.xpi	DEBUG	Skipping unavailable install location app-system-local
+1456380109243	addons.xpi	INFO	Mapping quickprint@hp.com to C:\Program Files (x86)\Hewlett-Packard\SmartPrint\QPExtension
+1456380109244	addons.xpi	DEBUG	checkForChanges
+1456380109245	addons.xpi	DEBUG	Loaded add-on state from prefs: {"app-profile":{"fxdriver@googlecode.com":{"d":"C:\\Users\\priyars\\AppData\\Local\\Temp\\anonymous2758731838074037342webdriver-profile\\extensions\\fxdriver@googlecode.com","e":false,"v":"2.42.2","st":1456380103170,"mt":1456380103081}},"app-global":{"{972ce4c6-7e08-4474-a285-3208198ce6fd}":{"d":"C:\\Program Files (x86)\\Mozilla Firefox\\browser\\extensions\\{972ce4c6-7e08-4474-a285-3208198ce6fd}","e":true,"v":"43.0.1","st":1455609872676,"mt":1455609872273}},"winreg-app-global":{"quickprint@hp.com":{"d":"C:\\Program Files (x86)\\Hewlett-Packard\\SmartPrint\\QPExtension","e":false,"v":"1.0","st":1296032248000,"mt":1293091680000}}}
+1456380109247	addons.xpi	DEBUG	Existing add-on fxdriver@googlecode.com in app-profile
+1456380109249	addons.xpi	DEBUG	getModTime: Recursive scan of {972ce4c6-7e08-4474-a285-3208198ce6fd}
+1456380109250	addons.xpi	DEBUG	Existing add-on {972ce4c6-7e08-4474-a285-3208198ce6fd} in app-global
+1456380109251	addons.xpi	DEBUG	Existing add-on quickprint@hp.com in winreg-app-global
+1456380109251	addons.xpi	DEBUG	getInstallState changed: false, state: {"app-profile":{"fxdriver@googlecode.com":{"d":"C:\\Users\\priyars\\AppData\\Local\\Temp\\anonymous2758731838074037342webdriver-profile\\extensions\\fxdriver@googlecode.com","e":false,"v":"2.42.2","st":1456380103170,"mt":1456380103081}},"app-global":{"{972ce4c6-7e08-4474-a285-3208198ce6fd}":{"d":"C:\\Program Files (x86)\\Mozilla Firefox\\browser\\extensions\\{972ce4c6-7e08-4474-a285-3208198ce6fd}","e":true,"v":"43.0.1","st":1455609872676,"mt":1455609872273}},"winreg-app-global":{"quickprint@hp.com":{"d":"C:\\Program Files (x86)\\Hewlett-Packard\\SmartPrint\\QPExtension","e":false,"v":"1.0","st":1296032248000,"mt":1293091680000}}}
+1456380109255	addons.xpi	DEBUG	No changes found
+1456380109270	addons.manager	DEBUG	Registering shutdown blocker for XPIProvider
+1456380109271	addons.manager	DEBUG	Provider finished startup: XPIProvider
+1456380109271	addons.manager	DEBUG	Starting provider: LightweightThemeManager
+1456380109271	addons.manager	DEBUG	Registering shutdown blocker for LightweightThemeManager
+1456380109272	addons.manager	DEBUG	Provider finished startup: LightweightThemeManager
+1456380109273	addons.manager	DEBUG	Starting provider: GMPProvider
+1456380109281	addons.manager	DEBUG	Registering shutdown blocker for GMPProvider
+1456380109281	addons.manager	DEBUG	Provider finished startup: GMPProvider
+1456380109281	addons.manager	DEBUG	Starting provider: PluginProvider
+1456380109282	addons.manager	DEBUG	Registering shutdown blocker for PluginProvider
+1456380109282	addons.manager	DEBUG	Provider finished startup: PluginProvider
+1456380109283	addons.manager	DEBUG	Completed startup sequence
+1456380109417	addons.xpi-utils	DEBUG	Starting async load of XPI database C:\Users\priyars\AppData\Local\Temp\anonymous2758731838074037342webdriver-profile\extensions.json
+*** Blocklist::_loadBlocklistFromFile: blocklist is disabled
+1456380109589	addons.manager	DEBUG	Starting provider: &lt;unnamed-provider&gt;
+1456380109589	addons.manager	DEBUG	Registering shutdown blocker for &lt;unnamed-provider&gt;
+1456380109590	addons.manager	DEBUG	Provider finished startup: &lt;unnamed-provider&gt;
+1456380109763	addons.xpi-utils	DEBUG	Async JSON file read took 0 MS
+1456380109763	addons.xpi-utils	DEBUG	Finished async read of XPI database, parsing...
+1456380109765	addons.xpi-utils	DEBUG	Successfully read XPI database
+1456380109891	addons.manager	DEBUG	Starting provider: PreviousExperimentProvider
+1456380109891	addons.manager	DEBUG	Registering shutdown blocker for PreviousExperimentProvider
+1456380109892	addons.manager	DEBUG	Provider finished startup: PreviousExperimentProvider
 Build info: version: '2.42.2', revision: '6a6995d31c7c56c340d6f45a76976d43506cd6cc', time: '2014-06-03 10:52:47'
 System info: host: 'Newt-Rnt07', ip: '192.168.1.243', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_45'
 Driver info: driver.version: FirefoxDriver</t>
   </si>
   <si>
     <t>java.lang.NullPointerException</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.remote.UnreachableBrowserException: Error communicating with the remote browser. It may have died.
+Build info: version: '2.48.0', revision: 'b7b081a4f1289f17e8ecd38bc67e137c2a12e34a', time: '2015-10-07 09:50:14'
+System info: host: 'Newt-Rnt09', ip: '192.168.1.43', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: driver.version: RemoteWebDriver</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.WebDriverException: f.QueryInterface is not a function
+Command duration or timeout: 30.12 seconds
+Build info: version: '2.49.0', revision: '365eeb4', time: '2016-01-13 18:37:00'
+System info: host: 'Newt-Rnt09', ip: '192.168.1.43', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=44.0, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: c8031cd0-b6a1-4cf7-8b84-7a7b5c26997b</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.WebDriverException: f.QueryInterface is not a function
+Command duration or timeout: 30.08 seconds
+Build info: version: '2.49.0', revision: '365eeb4', time: '2016-01-13 18:37:00'
+System info: host: 'Newt-Rnt09', ip: '192.168.1.43', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=44.0, platform=WINDOWS, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 122d6dcb-4cbc-4923-b5f3-27bf3355bbf2</t>
   </si>
 </sst>
 </file>
@@ -637,7 +661,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -683,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
